--- a/biology/Médecine/Rachel_Rotenberg/Rachel_Rotenberg.xlsx
+++ b/biology/Médecine/Rachel_Rotenberg/Rachel_Rotenberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rachel Rotenberg, née le 1er janvier 1878 près de Marioupol et morte en 1929, est une militante politique, titulaire d'un doctorat de la faculté de médecine de Montpellier. 
 </t>
@@ -513,13 +525,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et famille
-Rachel Rotenberg, russe d'origine juive, naît dans les environs de Marioupol[Note 1] en Ukraine, d'un père commerçant[1], Michel Samuelovitch Rotenberg, et de Sophie Rotenberg[2]. 
-Elle arrive à Montpellier en 1899 où elle obtient le baccalauréat par équivalence, le PCN le 9 novembre 1901 et le doctorat d'université en 1904[1].
+          <t>Jeunesse et famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rachel Rotenberg, russe d'origine juive, naît dans les environs de Marioupol[Note 1] en Ukraine, d'un père commerçant, Michel Samuelovitch Rotenberg, et de Sophie Rotenberg. 
+Elle arrive à Montpellier en 1899 où elle obtient le baccalauréat par équivalence, le PCN le 9 novembre 1901 et le doctorat d'université en 1904.
 Elle vit librement, fumant la pipe, logeant avec deux autres étudiantes russes rue Marioge et  qualifiée par ses contemporains, tels que Max Gourgas, de nihiliste.
-Elle épouse civilement Émile Louis Soubeiran, médecin et fils d'un pasteur protestant, le 29 mars 1902 à la mairie de Montpellier[2]. Leur fille Sophie naît le 2 novembre 1903 à Gallargues-le-Montueux[1].
-Activisme politique
-Elle est présente dans les groupes anarchistes de Montpellier[1].
+Elle épouse civilement Émile Louis Soubeiran, médecin et fils d'un pasteur protestant, le 29 mars 1902 à la mairie de Montpellier. Leur fille Sophie naît le 2 novembre 1903 à Gallargues-le-Montueux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rachel_Rotenberg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rachel_Rotenberg</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Activisme politique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est présente dans les groupes anarchistes de Montpellier.
 </t>
         </is>
       </c>
